--- a/lab3_RCA_Comparator/Kmaps.xlsx
+++ b/lab3_RCA_Comparator/Kmaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\Desktop\Fall 2018\CPE 133\Verilog-Projects\lab3_RCA_Comparator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD55E6C-E148-4F67-975B-016CD758C4D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7C2F22-F987-452E-86A5-5900BBEBAD15}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{9DB79EC1-A230-4961-82F7-28DA4318FA99}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="10">
   <si>
     <t>A,B,C</t>
   </si>
@@ -468,7 +468,7 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B10" sqref="B10:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,44 +533,61 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+    </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -629,32 +646,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
